--- a/biology/Botanique/Parc_Charles-III/Parc_Charles-III.xlsx
+++ b/biology/Botanique/Parc_Charles-III/Parc_Charles-III.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc Charles III est un jardin public de Nancy, situé au sein de la Ville-neuve.
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le parc est situé dans le quartier administratif Charles III - Centre-Ville. Le parc comporte six entrées :
 au no 109 de la rue Charles-III
@@ -555,7 +569,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette parc honore Charles III de Lorraine. 
 </t>
@@ -587,6 +603,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -612,7 +630,9 @@
           <t>Bâtiments remarquables et lieux de mémoire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Toboggan pour les petits.
